--- a/imageCreationExcel/back/106/106_0.xlsx
+++ b/imageCreationExcel/back/106/106_0.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29.73335539614669</v>
+        <v>0.9060023303436116</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9083412289495966</v>
+        <v>0.9959771648203819</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6134314809626216</v>
+        <v>12.86496689742938</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_P_brightness29.733_contrast0.908_gamma0.613.jpg</t>
+          <t>1_0_contrast0.906_sharpness0.996_equalization12.865.jpg</t>
         </is>
       </c>
     </row>
@@ -528,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.052917748235911</v>
+        <v>0.9881569679039494</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.09818587766114927</v>
+        <v>0.7708350324884308</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12.32013807300037</v>
+        <v>9.526527494342005</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_3_gamma1.053_sharpness0.098_equalization12.32.jpg</t>
+          <t>2_B_contrast0.988_gamma0.771_equalization9.527.jpg</t>
         </is>
       </c>
     </row>
@@ -575,11 +575,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.104619534739752</v>
+        <v>0.9027122010476973</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.1864395240891768</v>
+        <v>0.1616330368883065</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>27.44831747465302</v>
+        <v>22.56401186636847</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_1_contrast1.105_sharpness0.186_equalization27.448.jpg</t>
+          <t>3_1_gamma0.903_sharpness0.162_equalization22.564.jpg</t>
         </is>
       </c>
     </row>
@@ -612,39 +612,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.880637796176748</v>
+        <v>0.5191202126078198</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9512169199640531</v>
+        <v>0.03952329038348931</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9012414895506178</v>
+        <v>31.26992688845184</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_brightness1.881_contrast0.951_gamma0.901.jpg</t>
+          <t>4_0_gamma0.519_sharpness0.04_equalization31.27.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.120182460035694</v>
+        <v>29.15355396535391</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.2649787246581231</v>
+        <v>0.9303469768536105</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>25.70155948114003</v>
+        <v>0.3792024157461428</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_contrast1.12_sharpness0.265_equalization25.702.jpg</t>
+          <t>5_2_brightness29.154_gamma0.93_sharpness0.379.jpg</t>
         </is>
       </c>
     </row>
@@ -701,11 +701,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25.27317507478721</v>
+        <v>1.163602244986014</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8222831393764722</v>
+        <v>0.6962863905241063</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -721,14 +721,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.187286267393506</v>
+        <v>0.1358149351582951</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_T_brightness25.273_gamma0.822_sharpness0.187.jpg</t>
+          <t>6_T_contrast1.164_gamma0.696_sharpness0.136.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.723716546045751</v>
+        <v>20.87933974517784</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.00441828045189</v>
+        <v>1.005682656675614</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.4027240086615584</v>
+        <v>0.6067654175090776</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_1_brightness2.724_contrast1.004_sharpness0.403.jpg</t>
+          <t>7_T_brightness20.879_contrast1.006_gamma0.607.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6065949183960494</v>
+        <v>7.613516408480502</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.7834232839183852</v>
+        <v>0.8769449877065896</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>31.68043645561803</v>
+        <v>0.6550719963275071</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_0_gamma0.607_sharpness0.783_equalization31.68.jpg</t>
+          <t>8_T_brightness7.614_contrast0.877_sharpness0.655.jpg</t>
         </is>
       </c>
     </row>
@@ -822,24 +822,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8739483196755045</v>
+        <v>1.012982752992638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9010272539520872</v>
+        <v>0.8647328190473533</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.18482729102018</v>
+        <v>18.15797801297723</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_8_gamma0.874_sharpness0.901_equalization12.185.jpg</t>
+          <t>9_I_contrast1.013_gamma0.865_equalization18.158.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6458172185859724</v>
+        <v>23.99664791356519</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.04384359530912491</v>
+        <v>1.095389610208169</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20.76743993979467</v>
+        <v>0.4185425704693322</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_I_gamma0.646_sharpness0.044_equalization20.767.jpg</t>
+          <t>10_S_brightness23.997_gamma1.095_sharpness0.419.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8557517324880637</v>
+        <v>2.045971599092971</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.8580836252806667</v>
+        <v>0.7433051574081524</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>26.91498887246597</v>
+        <v>0.6770834601504798</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_T_gamma0.856_sharpness0.858_equalization26.915.jpg</t>
+          <t>11_I_brightness2.046_gamma0.743_sharpness0.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8643927895913704</v>
+        <v>0.8259123059967061</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,22 +965,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.037828463526483</v>
+        <v>0.5170041600647183</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>11.9295991040935</v>
+        <v>0.6790936729424888</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_T_contrast0.864_gamma1.038_equalization11.93.jpg</t>
+          <t>12_B_contrast0.826_gamma0.517_sharpness0.679.jpg</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -999,30 +999,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.9505595870714798</v>
+        <v>0.8734599782724343</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9447004948601402</v>
+        <v>0.989171155174887</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4992001120582706</v>
+        <v>10.07816835941084</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_7_contrast0.951_gamma0.945_sharpness0.499.jpg</t>
+          <t>13_S_contrast0.873_sharpness0.989_equalization10.078.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8.568815159035378</v>
+        <v>0.9151665079889288</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7591781829368245</v>
+        <v>0.6984637181716711</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.3000886386127752</v>
+        <v>28.5957167688258</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_S_brightness8.569_gamma0.759_sharpness0.3.jpg</t>
+          <t>14_B_contrast0.915_sharpness0.698_equalization28.596.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5.200737068828158</v>
+        <v>0.9682506601743912</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8486417890327999</v>
+        <v>1.178112910770299</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.2307641476663743</v>
+        <v>0.4233859431085862</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_E_brightness5.201_contrast0.849_sharpness0.231.jpg</t>
+          <t>15_P_brightness0.968_contrast1.178_sharpness0.423.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21.8859003436903</v>
+        <v>0.6563680450057481</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.821477885442595</v>
+        <v>0.8092277159378037</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.1000795385148988</v>
+        <v>21.32137440555741</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_9_brightness21.886_contrast0.821_sharpness0.1.jpg</t>
+          <t>16_B_gamma0.656_sharpness0.809_equalization21.321.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.587599590426128</v>
+        <v>0.5072814637290272</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.196637749325407</v>
+        <v>0.7753646855384346</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.283592996196323</v>
+        <v>13.33093093068447</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_3_brightness8.588_contrast1.197_sharpness0.284.jpg</t>
+          <t>17_I_gamma0.507_sharpness0.775_equalization13.331.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.5826708551112278</v>
+        <v>27.14703020281975</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.8577804256282504</v>
+        <v>1.148011838713697</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4.439429397550566</v>
+        <v>0.9442691002194641</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_7_gamma0.583_sharpness0.858_equalization4.439.jpg</t>
+          <t>18_8_brightness27.147_contrast1.148_gamma0.944.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9941380800131393</v>
+        <v>21.26775608129217</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.4095713019938247</v>
+        <v>0.9960385347353576</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>27.10652488853583</v>
+        <v>0.8505600364741098</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_C_contrast0.994_sharpness0.41_equalization27.107.jpg</t>
+          <t>19_8_brightness21.268_contrast0.996_gamma0.851.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.8172447215005696</v>
+        <v>1.127480825363714</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.8084125411142594</v>
+        <v>0.5633919010568861</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>22.24741800179179</v>
+        <v>0.1844741671266631</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_C_contrast0.817_gamma0.808_equalization22.247.jpg</t>
+          <t>20_P_contrast1.127_gamma0.563_sharpness0.184.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16.7650317207532</v>
+        <v>1.115600440395795</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.8299421768590058</v>
+        <v>0.9801710650621588</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.2948958724286135</v>
+        <v>30.49837434931737</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_7_brightness16.765_contrast0.83_sharpness0.295.jpg</t>
+          <t>21_1_contrast1.116_gamma0.98_equalization30.498.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,16 +1368,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8428904362789192</v>
+        <v>15.44387057376222</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1385,22 +1385,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7693595927456847</v>
+        <v>0.9939494627257164</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8.388964416420325</v>
+        <v>0.3479538069365695</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_0_contrast0.843_gamma0.769_equalization8.389.jpg</t>
+          <t>22_P_brightness15.444_gamma0.994_sharpness0.348.jpg</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.8109747586811222</v>
+        <v>2.077773763589696</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.032387996931849</v>
+        <v>0.7295668655142443</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.7118846941166956</v>
+        <v>0.9256083265343976</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_E_brightness0.811_gamma1.032_sharpness0.712.jpg</t>
+          <t>23_E_brightness2.078_gamma0.73_sharpness0.926.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>25.24922577047276</v>
+        <v>16.63241207992569</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.096726648509548</v>
+        <v>1.017025321273729</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.3706569126355403</v>
+        <v>0.3409316341840563</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_1_brightness25.249_gamma1.097_sharpness0.371.jpg</t>
+          <t>24_S_brightness16.632_gamma1.017_sharpness0.341.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,16 +1494,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13.47770910374542</v>
+        <v>0.9458432636591545</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,22 +1511,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9850184018544375</v>
+        <v>0.6378129472057472</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5551384879786554</v>
+        <v>29.31508158512345</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_brightness13.478_gamma0.985_sharpness0.555.jpg</t>
+          <t>25_S_contrast0.946_gamma0.638_equalization29.315.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.195359694577022</v>
+        <v>0.9747200443720383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.7546359057569065</v>
+        <v>1.026502030751112</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.09304422448615</v>
+        <v>0.7809331589763853</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_contrast1.195_gamma0.755_equalization20.093.jpg</t>
+          <t>26_P_brightness0.975_contrast1.027_gamma0.781.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,16 +1578,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23.51226173720478</v>
+        <v>0.9443727306954307</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.073065020520475</v>
+        <v>1.081159086917255</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.259618599677451</v>
+        <v>26.18758920213446</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_8_brightness23.512_gamma1.073_sharpness0.26.jpg</t>
+          <t>27_9_contrast0.944_gamma1.081_equalization26.188.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,15 +1629,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9682955765797814</v>
+        <v>1.112308502949617</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.6604968645579785</v>
+        <v>0.7438009763569717</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1645,14 +1645,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.27126486077123</v>
+        <v>7.50950713487841</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_contrast0.968_sharpness0.66_equalization19.271.jpg</t>
+          <t>28_B_contrast1.112_gamma0.744_equalization7.51.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.106592238825866</v>
+        <v>0.9425104083782067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.019387152103105</v>
+        <v>1.027587696484242</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.394814137837198</v>
+        <v>31.3385365434764</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_9_contrast1.107_gamma1.019_equalization8.395.jpg</t>
+          <t>29_T_contrast0.943_gamma1.028_equalization31.339.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1713,15 +1713,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.092952512731459</v>
+        <v>1.05576101839628</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.030498176572321</v>
+        <v>0.06867415212918317</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1729,14 +1729,14 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.07069715026077</v>
+        <v>18.28835644212566</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_contrast1.093_gamma1.03_equalization14.071.jpg</t>
+          <t>30_2_contrast1.056_sharpness0.069_equalization18.288.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,39 +1746,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.820621887802948</v>
+        <v>0.5207708432690779</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.643260648998762</v>
+        <v>0.6664128328223363</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.866934723280669</v>
+        <v>12.42553378344613</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_I_contrast0.821_gamma0.643_sharpness0.867.jpg</t>
+          <t>31_9_gamma0.521_sharpness0.666_equalization12.426.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>23.00711831802107</v>
+        <v>20.62172959907387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.072726000277394</v>
+        <v>1.142520270634825</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.1878841251081898</v>
+        <v>1.087966140447181</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_3_brightness23.007_gamma1.073_sharpness0.188.jpg</t>
+          <t>32_0_brightness20.622_contrast1.143_gamma1.088.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11.12277652587665</v>
+        <v>6.001866685461911</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9157336207120318</v>
+        <v>1.02920465479197</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.4199532477392498</v>
+        <v>0.9036885436967008</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_B_brightness11.123_contrast0.916_sharpness0.42.jpg</t>
+          <t>33_T_brightness6.002_contrast1.029_gamma0.904.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14.47575534345337</v>
+        <v>29.33586148493069</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9888046547306649</v>
+        <v>0.5090367260364544</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.374671679101103</v>
+        <v>0.7904561509482109</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_9_brightness14.476_gamma0.989_sharpness0.375.jpg</t>
+          <t>34_8_brightness29.336_gamma0.509_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>17.59394995037543</v>
+        <v>1.215001334469895</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8549382915714179</v>
+        <v>0.9746393933225789</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.6370054968473545</v>
+        <v>0.6648976075505453</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_brightness17.594_gamma0.855_sharpness0.637.jpg</t>
+          <t>35_3_brightness1.215_gamma0.975_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.163119737853814</v>
+        <v>0.8325726023481397</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.905943794812041</v>
+        <v>0.8945866998919263</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>23.18838381864296</v>
+        <v>0.5646263836566279</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_0_contrast1.163_gamma0.906_equalization23.188.jpg</t>
+          <t>36_I_contrast0.833_gamma0.895_sharpness0.565.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,15 +2007,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3.841914105311499</v>
+        <v>2.829217752242247</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9971495110158294</v>
+        <v>1.1106649743016</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.9078722265609592</v>
+        <v>0.3637901375261024</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_I_brightness3.842_gamma0.997_sharpness0.908.jpg</t>
+          <t>37_B_brightness2.829_contrast1.111_sharpness0.364.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6.036422849992245</v>
+        <v>1.13103633977719</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9277284865329571</v>
+        <v>0.6499665691096604</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.911179625217606</v>
+        <v>0.1131622759282958</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_S_brightness6.036_contrast0.928_sharpness0.911.jpg</t>
+          <t>38_I_contrast1.131_gamma0.65_sharpness0.113.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.133297653873711</v>
+        <v>19.08162541668332</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2099,7 +2099,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.5352081715299214</v>
+        <v>1.081291246902681</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.8095975245939117</v>
+        <v>0.7718150933108</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_brightness4.133_gamma0.535_sharpness0.81.jpg</t>
+          <t>39_E_brightness19.082_gamma1.081_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2.205563657118554</v>
+        <v>4.465182014879138</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,22 +2141,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.169068056785913</v>
+        <v>1.164413575674873</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.9327955719366907</v>
+        <v>0.6783604424355583</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_T_brightness2.206_contrast1.169_sharpness0.933.jpg</t>
+          <t>40_T_brightness4.465_contrast1.164_gamma0.678.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.962920098349432</v>
+        <v>1.039710201775966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.5034257238866894</v>
+        <v>0.5490628926038894</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>22.93752692171693</v>
+        <v>20.65677950003711</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_I_contrast0.963_gamma0.503_equalization22.938.jpg</t>
+          <t>41_3_contrast1.04_sharpness0.549_equalization20.657.jpg</t>
         </is>
       </c>
     </row>
@@ -2213,34 +2213,34 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>26.78753244115627</v>
+        <v>1.155953566092978</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.134766269846323</v>
+        <v>0.7815471633363293</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.957827526701121</v>
+        <v>0.8586627577546376</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_0_brightness26.788_contrast1.135_gamma0.958.jpg</t>
+          <t>42_0_contrast1.156_gamma0.782_sharpness0.859.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2259,30 +2259,30 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.002396760842783</v>
+        <v>0.8057493575440253</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.6719433691382886</v>
+        <v>0.8398473020084372</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.865896630975497</v>
+        <v>4.544085514936873</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_0_contrast1.002_gamma0.672_sharpness0.866.jpg</t>
+          <t>43_E_contrast0.806_sharpness0.84_equalization4.544.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9106115266607623</v>
+        <v>26.03455896645702</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8402949184953838</v>
+        <v>0.7197758794355307</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>25.93223757853178</v>
+        <v>0.3613471092985508</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_1_contrast0.911_gamma0.84_equalization25.932.jpg</t>
+          <t>44_I_brightness26.035_gamma0.72_sharpness0.361.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8147739593929287</v>
+        <v>10.57434651153213</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7737289122446976</v>
+        <v>0.8517906122748798</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.5880988518648421</v>
+        <v>0.5411938397658345</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_contrast0.815_gamma0.774_sharpness0.588.jpg</t>
+          <t>45_C_brightness10.574_contrast0.852_gamma0.541.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.8038575715811308</v>
+        <v>0.8414098856396797</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.3026838442333259</v>
+        <v>0.6862415200595779</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>29.34001554798203</v>
+        <v>11.83982039003563</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_2_contrast0.804_sharpness0.303_equalization29.34.jpg</t>
+          <t>46_7_contrast0.841_sharpness0.686_equalization11.84.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.062343388460734</v>
+        <v>1.107071155212227</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8164225195548815</v>
+        <v>0.8004053318919482</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>8.820462867355207</v>
+        <v>6.346057704912416</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_8_contrast1.062_gamma0.816_equalization8.82.jpg</t>
+          <t>47_P_contrast1.107_gamma0.8_equalization6.346.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,15 +2469,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>27.39949117263148</v>
+        <v>16.45993605655009</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6609832739877881</v>
+        <v>0.903898650093319</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2485,14 +2485,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.03316347986573989</v>
+        <v>0.7700208687624868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_B_brightness27.399_gamma0.661_sharpness0.033.jpg</t>
+          <t>48_C_brightness16.46_contrast0.904_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
